--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>600140.3967378363</v>
+        <v>597171.6177738118</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7778725.998692567</v>
+        <v>7757679.400320135</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12162664.64504643</v>
+        <v>12163408.26182197</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>190.0910713444383</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>186.8633434637443</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>101.0546783332131</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>372.0445717845312</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>33.26305679144293</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>139.8939792152983</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>293.249920228161</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>223.3593330834803</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>169.0167291702124</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292643</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>17.25588147840219</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>74.75769145492396</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396191</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>74.75769145492396</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>173.6268892744718</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>173.6268892744753</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620232</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>42.3206982334432</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>143.9764333632473</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>137.9274910473494</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>102.8228810500186</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>53.827044276916</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2767,7 +2767,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>270.0697021486458</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3004,7 +3004,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>181.1375494785989</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292615</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851117</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247753</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734100194</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>74.7576914549243</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3241,7 +3241,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>270.0697021486441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.6240527793848</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.1631028869118</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.5732527365872</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.820581188166</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.7662568576156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.7334871286618</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
-        <v>283.4533031204485</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.50280171672379</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0872679533783</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>250.7991071035505</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V35" t="n">
-        <v>327.6424695860391</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.1311798333172</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.6213117943732</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.1281497719578</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.7221912978415</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>83.55410938283651</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>93.30736086638493</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.4322639930711</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.3442009078581</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.07096270698773</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S37" t="n">
-        <v>181.2286994743631</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
-        <v>217.372205578666</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0756626643246</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
-        <v>252.0278544397322</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.4132094524952</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.5998665049413</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.474864467999</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710064</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>405.339001364369</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8432760127576</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>175.6708051668787</v>
+        <v>175.5610162827835</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>162.9758571994741</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>144.3445091190586</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>20.69089151859167</v>
       </c>
       <c r="F40" t="n">
-        <v>141.2598730078727</v>
+        <v>141.1500841237775</v>
       </c>
       <c r="G40" t="n">
-        <v>161.3808778621083</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>136.2928147768953</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>28.37884367475471</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>63.019576576025</v>
+        <v>62.90978769192979</v>
       </c>
       <c r="S40" t="n">
-        <v>177.1773133434004</v>
+        <v>177.0675244593052</v>
       </c>
       <c r="T40" t="n">
-        <v>213.3208194477032</v>
+        <v>213.211030563608</v>
       </c>
       <c r="U40" t="n">
-        <v>282.0242765333618</v>
+        <v>281.9144876492666</v>
       </c>
       <c r="V40" t="n">
-        <v>247.9764683087694</v>
+        <v>247.8666794246742</v>
       </c>
       <c r="W40" t="n">
-        <v>282.3618233215324</v>
+        <v>282.2520344374372</v>
       </c>
       <c r="X40" t="n">
-        <v>221.5484803739786</v>
+        <v>221.4386914898834</v>
       </c>
       <c r="Y40" t="n">
-        <v>214.4234783370362</v>
+        <v>214.313689452941</v>
       </c>
     </row>
     <row r="41">
@@ -3746,16 +3746,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672667</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624964</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>115.3590671772834</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.70965412973855</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.08582897641301</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096043</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>192.3870718480912</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091574</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374242</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672668</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624964</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>115.3590671772834</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.70965412973848</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.08582897641301</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>192.3870718480913</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091575</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374243</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>632.3182666762914</v>
+        <v>1383.846446409823</v>
       </c>
       <c r="C2" t="n">
-        <v>632.3182666762914</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762914</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2113.586084320875</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>1782.523196977305</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.523196977305</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X2" t="n">
-        <v>1409.057438716225</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y2" t="n">
-        <v>1018.918106740413</v>
+        <v>1383.846446409823</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,10 +4419,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>405.2609724030931</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>405.2609724030931</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>405.2609724030931</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U4" t="n">
-        <v>626.0535515466232</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>626.0535515466232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>626.0535515466232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>626.0535515466232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>405.2609724030931</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1937.315630222944</v>
+        <v>1507.939751500713</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.353113282533</v>
+        <v>1507.939751500713</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1149.674052893962</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>763.8858002957179</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>756.9402995465144</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2663.550043754139</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2663.550043754139</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2663.550043754139</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2663.550043754139</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2663.550043754139</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2310.781388484024</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X5" t="n">
-        <v>1937.315630222944</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y5" t="n">
-        <v>1937.315630222944</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="6">
@@ -4659,10 +4659,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4729,34 +4729,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>195.250031532787</v>
       </c>
       <c r="V7" t="n">
         <v>53.94298182036445</v>
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1160.852583904132</v>
+        <v>1448.521729839487</v>
       </c>
       <c r="C8" t="n">
-        <v>1160.852583904132</v>
+        <v>1448.521729839487</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1090.256031232737</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>704.4677786344926</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>293.481873844885</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>279.5584697834759</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205145</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.591755944065</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1547.452423968253</v>
+        <v>1448.521729839487</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4987,16 +4987,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>224.6669506791649</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>224.6669506791649</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W10" t="n">
         <v>53.94298182036445</v>
@@ -5030,37 +5030,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1797.117834600129</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2330.649739272054</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>2877.428556330836</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161929</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>260.9043113423048</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C13" t="n">
-        <v>243.4741280307875</v>
+        <v>171.0738540998328</v>
       </c>
       <c r="D13" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
         <v>95.56103444839442</v>
@@ -5197,10 +5197,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.7880996267</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>999.103611420813</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838523</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>481.696890485835</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>260.9043113423048</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5279,22 +5279,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>702.9183254305503</v>
       </c>
       <c r="L14" t="n">
-        <v>1237.706702364129</v>
+        <v>1153.952538678959</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>1687.484443350884</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750059</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5306,22 +5306,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5367,13 +5367,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998328</v>
       </c>
       <c r="D16" t="n">
         <v>95.56103444839442</v>
@@ -5437,49 +5437,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598113</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518526</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952185</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.3434661047</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.3434661047</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5516,16 +5516,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.328657580449</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807095</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O17" t="n">
         <v>4075.973927750059</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5604,16 +5604,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5671,7 +5671,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
         <v>344.6708498442063</v>
@@ -5695,25 +5695,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783402</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201817</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221643</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
         <v>277.2094992786341</v>
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.328657580449</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807095</v>
+        <v>2730.494725501681</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750059</v>
+        <v>3610.459375831136</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4323.814463278081</v>
       </c>
       <c r="Q20" t="n">
         <v>4719.034655862919</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>414.6138567886371</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C22" t="n">
-        <v>245.6776738607302</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="F22" t="n">
         <v>95.56103444839442</v>
@@ -5908,13 +5908,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953298</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1913.595286070923</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>1721.909401897749</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.576850674229</v>
+        <v>1500.142786467275</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.146109903272</v>
+        <v>1211.039919592919</v>
       </c>
       <c r="V22" t="n">
-        <v>1334.461621697385</v>
+        <v>956.3554313870318</v>
       </c>
       <c r="W22" t="n">
-        <v>1045.044451660424</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="X22" t="n">
-        <v>817.054900762407</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="Y22" t="n">
-        <v>596.2623216188769</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5990,49 +5990,49 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>888.4135721382793</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364129</v>
+        <v>1339.447785386688</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193957</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420604</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
         <v>205.070220408989</v>
@@ -6078,10 +6078,10 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
         <v>2436.460902902953</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>529.0120128405554</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C25" t="n">
-        <v>389.6913148129298</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>389.6913148129298</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6145,13 +6145,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6166,31 +6166,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1764.657581931529</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1475.554715057173</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V25" t="n">
-        <v>1220.870226851286</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W25" t="n">
-        <v>931.4530568143252</v>
+        <v>894.9278122480885</v>
       </c>
       <c r="X25" t="n">
-        <v>931.4530568143252</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="Y25" t="n">
-        <v>710.6604776707951</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,28 +6224,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>750.1800661608922</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1614.698881814247</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2593.249184644075</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3573.001456870722</v>
+        <v>3070.887536710053</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750059</v>
+        <v>3573.86000758939</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6303,22 +6303,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
         <v>2436.460902902952</v>
@@ -6327,16 +6327,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D28" t="n">
         <v>95.56103444839442</v>
@@ -6382,10 +6382,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1901.972714309839</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931529</v>
+        <v>1710.286830136665</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501055</v>
+        <v>1488.520214706191</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1199.417347831835</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>944.7328596259479</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>655.3156895889873</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>427.3261386909699</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6455,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6467,19 +6467,19 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807095</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
-        <v>3944.053400686432</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4338.82776704361</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
         <v>4653.975400188666</v>
@@ -6531,7 +6531,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6540,13 +6540,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839437</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839437</v>
+        <v>171.0738540998324</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6622,49 +6622,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.670849844206</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.230648292702</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
         <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089259</v>
+        <v>137.5579332089262</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074194</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972651</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750619</v>
+        <v>1849.525439218843</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.328657580447</v>
+        <v>2383.057343890768</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807093</v>
+        <v>3362.809616117414</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075807</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939016</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193627</v>
+        <v>427.5025029193577</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320274</v>
+        <v>794.2006632320232</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454343</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
@@ -6810,7 +6810,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839437</v>
+        <v>171.0738540998333</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839437</v>
+        <v>171.0738540998333</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998333</v>
       </c>
       <c r="E34" t="n">
         <v>95.56103444839442</v>
@@ -6856,52 +6856,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953301</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.670849844206</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927017</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.38769389225</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518528</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952187</v>
+        <v>1878.73316995219</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104701</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104701</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.657581931528</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501054</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433634</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998333</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.564121551397</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.712502473708</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.557701729681</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.88034699416</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.0053400672751</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G35" t="n">
-        <v>380.1331308464048</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>422.5594898197619</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K35" t="n">
-        <v>892.1898736074438</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L35" t="n">
-        <v>1511.709654113219</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M35" t="n">
-        <v>2232.714216052256</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N35" t="n">
-        <v>2969.999193969362</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O35" t="n">
-        <v>3652.861230428501</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P35" t="n">
-        <v>4201.167179115849</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q35" t="n">
-        <v>4564.749365221855</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
-        <v>4605.476787028166</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T35" t="n">
-        <v>4404.378536570208</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.04610515248</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.094115671632</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.436358264241</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.081497865884</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.053063752795</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C36" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D36" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E36" t="n">
-        <v>461.0042623779398</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F36" t="n">
-        <v>314.4697044048247</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G36" t="n">
-        <v>178.6894541647542</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L36" t="n">
-        <v>373.2063585143972</v>
+        <v>689.5532446329793</v>
       </c>
       <c r="M36" t="n">
-        <v>965.2247127665249</v>
+        <v>1281.571598885107</v>
       </c>
       <c r="N36" t="n">
-        <v>1587.320676165861</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="O36" t="n">
-        <v>2134.197151166055</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.780669592131</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>496.9316385705114</v>
+        <v>495.0957149476005</v>
       </c>
       <c r="C37" t="n">
-        <v>496.9316385705114</v>
+        <v>326.1595320196936</v>
       </c>
       <c r="D37" t="n">
-        <v>496.9316385705114</v>
+        <v>241.7614417340001</v>
       </c>
       <c r="E37" t="n">
-        <v>496.9316385705114</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="F37" t="n">
-        <v>402.6817791095165</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5784821468184</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
-        <v>172.9074769327806</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K37" t="n">
-        <v>432.6448948985992</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L37" t="n">
-        <v>820.5154039769883</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.853687016702</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.658243803664</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.789391813949</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
-        <v>2312.428517645408</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q37" t="n">
-        <v>2430.250342194098</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2362.501895015323</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S37" t="n">
-        <v>2179.442602616976</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>1959.874718194081</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U37" t="n">
-        <v>1670.909402371531</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V37" t="n">
-        <v>1416.335812028367</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W37" t="n">
-        <v>1127.029539854129</v>
+        <v>1125.526309819388</v>
       </c>
       <c r="X37" t="n">
-        <v>899.150886818835</v>
+        <v>897.5367589213704</v>
       </c>
       <c r="Y37" t="n">
-        <v>678.4692055380281</v>
+        <v>676.7441797778403</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2316.676938649612</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1947.7144217092</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D38" t="n">
-        <v>1589.44872310245</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E38" t="n">
-        <v>1203.660470504205</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2271357927214</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2440287091278</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3125385470848</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K38" t="n">
-        <v>842.9429223347665</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.462702840541</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.467264779579</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.752242696685</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O38" t="n">
-        <v>3603.614279155823</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P38" t="n">
-        <v>4151.920227843171</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q38" t="n">
-        <v>4564.749365221855</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4605.365889165442</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T38" t="n">
-        <v>4404.156740844761</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4150.71341156431</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3819.650524220739</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W38" t="n">
-        <v>3466.881868950625</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
-        <v>3093.416110689545</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2703.276778713734</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C39" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D39" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E39" t="n">
-        <v>461.0042623779398</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F39" t="n">
-        <v>314.4697044048247</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G39" t="n">
-        <v>178.6894541647543</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>241.4646447998178</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K39" t="n">
-        <v>571.9733873631765</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L39" t="n">
-        <v>1062.705720206928</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="M39" t="n">
-        <v>1654.724074459055</v>
+        <v>833.5146841555804</v>
       </c>
       <c r="N39" t="n">
-        <v>2276.820037858392</v>
+        <v>1455.610647554917</v>
       </c>
       <c r="O39" t="n">
-        <v>2323.219395606885</v>
+        <v>2002.487122555111</v>
       </c>
       <c r="P39" t="n">
-        <v>2323.219395606885</v>
+        <v>2422.070640981186</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>565.849399736488</v>
+        <v>567.7486935666595</v>
       </c>
       <c r="C40" t="n">
-        <v>565.849399736488</v>
+        <v>403.1266155873927</v>
       </c>
       <c r="D40" t="n">
-        <v>565.849399736488</v>
+        <v>257.3240811236972</v>
       </c>
       <c r="E40" t="n">
-        <v>565.849399736488</v>
+        <v>236.4241907008772</v>
       </c>
       <c r="F40" t="n">
-        <v>423.1626593244954</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G40" t="n">
-        <v>260.1516715849921</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H40" t="n">
-        <v>122.4821617093401</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>176.9183492024338</v>
+        <v>177.0587253013232</v>
       </c>
       <c r="K40" t="n">
-        <v>440.6666394379054</v>
+        <v>440.9157065320492</v>
       </c>
       <c r="L40" t="n">
-        <v>832.5480207859476</v>
+        <v>832.9057788753455</v>
       </c>
       <c r="M40" t="n">
-        <v>1255.897176095315</v>
+        <v>1256.363625179967</v>
       </c>
       <c r="N40" t="n">
-        <v>1674.71260515193</v>
+        <v>1675.287745231836</v>
       </c>
       <c r="O40" t="n">
-        <v>2045.854625431867</v>
+        <v>2046.538456507028</v>
       </c>
       <c r="P40" t="n">
-        <v>2340.50462353298</v>
+        <v>2341.297145603395</v>
       </c>
       <c r="Q40" t="n">
-        <v>2462.337320351323</v>
+        <v>2463.238533416992</v>
       </c>
       <c r="R40" t="n">
-        <v>2398.681182395742</v>
+        <v>2399.693293324133</v>
       </c>
       <c r="S40" t="n">
-        <v>2219.71419922059</v>
+        <v>2220.837208011704</v>
       </c>
       <c r="T40" t="n">
-        <v>2004.23862402089</v>
+        <v>2005.472530674726</v>
       </c>
       <c r="U40" t="n">
-        <v>1719.365617421534</v>
+        <v>1720.710421938093</v>
       </c>
       <c r="V40" t="n">
-        <v>1468.884336301565</v>
+        <v>1470.340038680846</v>
       </c>
       <c r="W40" t="n">
-        <v>1183.670373350522</v>
+        <v>1185.236973592526</v>
       </c>
       <c r="X40" t="n">
-        <v>959.8840295384223</v>
+        <v>961.5615276431489</v>
       </c>
       <c r="Y40" t="n">
-        <v>743.29465748081</v>
+        <v>745.0830534482591</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>107.3505653988756</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>107.3505653988756</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>107.3505653988756</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>699.3689196510031</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319335</v>
+        <v>921.9831621891587</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656823</v>
+        <v>778.3953859427372</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150028</v>
+        <v>653.6271532118869</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942659</v>
+        <v>531.0624663109793</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580119</v>
+        <v>409.5209254945544</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345482</v>
+        <v>267.6551373506186</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705345</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296848</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>482.1471447887723</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>894.7529362604304</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693414</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873644</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501926</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2585.653348083872</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2427.831564504287</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900154</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838287</v>
+        <v>1969.773381896366</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1740.437300371965</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1476.36853701649</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582391</v>
+        <v>1273.727392799958</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400517</v>
+        <v>1078.283220337913</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>921.9831621891592</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>778.3953859427377</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>653.6271532118874</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>531.0624663109796</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>409.5209254945547</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>267.655137350619</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296848</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>482.1471447887723</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>894.7529362604304</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693413</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873644</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501926</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2585.653348083871</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2427.831564504287</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900154</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896367</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371965</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.36853701649</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799958</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337913</v>
       </c>
     </row>
   </sheetData>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>241.9338129178262</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>96.13798426930737</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,13 +8927,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>85.51392558917576</v>
       </c>
       <c r="L14" t="n">
-        <v>170.1140909277313</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8942,10 +8942,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9164,19 +9164,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>295.4822118493992</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9407,19 +9407,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>148.4180109385407</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9638,10 +9638,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>272.882861657589</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277313</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9650,16 +9650,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>133.2530576400263</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>229.1543674071818</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,22 +10115,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>19.79750571619297</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>67.53663776704403</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>294.8707872801629</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>67.536637767049</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>49.74439522492622</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>51.31264782908892</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>49.74439522492651</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>149.9909396202256</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>73.8577815632884</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983644</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>73.8577815632884</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23671,7 +23671,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>16.14213605697009</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>16.14213605696662</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>105.0742887270139</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>46.61145443660413</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>142.2354048423656</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>29.31933005127843</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983812</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>183.3889571555942</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>35.10510839313133</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>16.14213605696705</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>73.85778156328831</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>105.0742887270139</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>71.67627119164487</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25093,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983817</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004744</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>16.14213605696881</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.137032214532</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.5056841341165</v>
+        <v>65.06136363537584</v>
       </c>
       <c r="E37" t="n">
-        <v>146.3241737624734</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>52.00389827245049</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>81.6947878603132</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>163.0856460835693</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>144.4542980031538</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>142.2727876315106</v>
+        <v>121.4721072288237</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>161.2710889780131</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>136.1830258928001</v>
       </c>
       <c r="I40" t="n">
-        <v>49.26455805459575</v>
+        <v>77.53361284525523</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1032854.501812958</v>
+        <v>1032793.132631317</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1035810.103378973</v>
+        <v>1035908.922432801</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1050487.920367036</v>
+        <v>1051100.593382115</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1050487.920367036</v>
+        <v>1051100.593382115</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855343</v>
       </c>
       <c r="C2" t="n">
         <v>389994.8406855345</v>
@@ -26320,40 +26320,40 @@
         <v>389994.8406855345</v>
       </c>
       <c r="E2" t="n">
-        <v>377227.697542634</v>
+        <v>377227.6975426338</v>
       </c>
       <c r="F2" t="n">
-        <v>377227.6975426342</v>
+        <v>377227.6975426339</v>
       </c>
       <c r="G2" t="n">
-        <v>377227.697542634</v>
+        <v>377227.6975426337</v>
       </c>
       <c r="H2" t="n">
-        <v>377227.697542634</v>
+        <v>377227.6975426339</v>
       </c>
       <c r="I2" t="n">
         <v>377227.697542634</v>
       </c>
       <c r="J2" t="n">
-        <v>377227.6975426341</v>
+        <v>377227.6975426339</v>
       </c>
       <c r="K2" t="n">
-        <v>377227.6975426339</v>
+        <v>377227.697542634</v>
       </c>
       <c r="L2" t="n">
-        <v>377227.697542634</v>
+        <v>377227.6975426342</v>
       </c>
       <c r="M2" t="n">
-        <v>383204.2531163548</v>
+        <v>383174.4141313158</v>
       </c>
       <c r="N2" t="n">
-        <v>384305.3595821246</v>
+        <v>384335.1985671631</v>
       </c>
       <c r="O2" t="n">
-        <v>389994.8406855347</v>
+        <v>389994.8406855343</v>
       </c>
       <c r="P2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855345</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,28 +26381,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.25168002746068e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>312959.1464485562</v>
+        <v>312970.0160233569</v>
       </c>
       <c r="N3" t="n">
-        <v>3241.108904770039</v>
+        <v>3416.771119322867</v>
       </c>
       <c r="O3" t="n">
-        <v>22827.93839668361</v>
+        <v>16659.16697241342</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21619.60799709185</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="H4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="F4" t="n">
-        <v>21619.60799709189</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="H4" t="n">
-        <v>21619.60799709189</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21619.60799709189</v>
-      </c>
       <c r="J4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709195</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="M4" t="n">
-        <v>5156.962217674893</v>
+        <v>5069.915760662892</v>
       </c>
       <c r="N4" t="n">
-        <v>6490.070157725702</v>
+        <v>6475.275729222439</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975163</v>
+        <v>13327.39591958995</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.5078997516</v>
+        <v>13327.3959195899</v>
       </c>
     </row>
     <row r="5">
@@ -26479,37 +26479,37 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="M5" t="n">
-        <v>100915.1886201729</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="N5" t="n">
-        <v>101255.7846008168</v>
+        <v>101289.0951212765</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
       <c r="P5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-475038.7129848492</v>
+        <v>-475038.7129848493</v>
       </c>
       <c r="C6" t="n">
         <v>114929.1662296953</v>
       </c>
       <c r="D6" t="n">
-        <v>114929.1662296953</v>
+        <v>114929.1662296952</v>
       </c>
       <c r="E6" t="n">
-        <v>-468152.8427015784</v>
+        <v>-468220.0381918043</v>
       </c>
       <c r="F6" t="n">
-        <v>259224.5712918286</v>
+        <v>259157.3758016026</v>
       </c>
       <c r="G6" t="n">
-        <v>259224.5712918284</v>
+        <v>259157.3758016025</v>
       </c>
       <c r="H6" t="n">
-        <v>259224.5712918284</v>
+        <v>259157.3758016024</v>
       </c>
       <c r="I6" t="n">
-        <v>259224.5712918285</v>
+        <v>259157.3758016029</v>
       </c>
       <c r="J6" t="n">
-        <v>82801.35209923566</v>
+        <v>82734.15660900943</v>
       </c>
       <c r="K6" t="n">
-        <v>259224.5712918283</v>
+        <v>259157.3758016027</v>
       </c>
       <c r="L6" t="n">
-        <v>259224.5712918292</v>
+        <v>259157.3758016025</v>
       </c>
       <c r="M6" t="n">
-        <v>-35827.04417004919</v>
+        <v>-35831.45409180685</v>
       </c>
       <c r="N6" t="n">
-        <v>273318.395918812</v>
+        <v>273124.2690072446</v>
       </c>
       <c r="O6" t="n">
-        <v>251554.278535184</v>
+        <v>256968.5332869997</v>
       </c>
       <c r="P6" t="n">
-        <v>274382.2169318678</v>
+        <v>273627.7002594133</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.161175015058565</v>
+        <v>4.270963899153779</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26765,7 +26765,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593297</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
@@ -26774,10 +26774,10 @@
         <v>1358.041048716386</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
     </row>
   </sheetData>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.051386130962745</v>
+        <v>4.270963899153779</v>
       </c>
       <c r="O2" t="n">
-        <v>20.12347247698117</v>
+        <v>20.82395871551677</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,28 +26975,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M3" t="n">
-        <v>268.2643481230889</v>
+        <v>268.2643481230871</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.93803719132011e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>175.1818204265692</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>64.36082404454501</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>21.87414536972213</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>185.2271959087647</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>41.73959823626376</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>21.2153457833688</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>56.01837628787189</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>112.2436641085297</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>61.43312139252191</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>100.5634396808768</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27904,10 +27904,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,10 +28068,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>117.5062691663786</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-4.991651982877488e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.655564574321033e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.012523398458143e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28518,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.075097582055123e-12</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.1097888840958194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.537044377342397</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.161175015058565</v>
+        <v>4.270963899153779</v>
       </c>
       <c r="C40" t="n">
-        <v>4.161175015058565</v>
+        <v>4.270963899153779</v>
       </c>
       <c r="D40" t="n">
-        <v>4.161175015058565</v>
+        <v>4.270963899153779</v>
       </c>
       <c r="E40" t="n">
-        <v>4.161175015058565</v>
+        <v>4.270963899153779</v>
       </c>
       <c r="F40" t="n">
-        <v>4.161175015058565</v>
+        <v>4.270963899153779</v>
       </c>
       <c r="G40" t="n">
-        <v>4.161175015058565</v>
+        <v>4.270963899153779</v>
       </c>
       <c r="H40" t="n">
-        <v>4.161175015058565</v>
+        <v>4.270963899153779</v>
       </c>
       <c r="I40" t="n">
-        <v>4.161175015058565</v>
+        <v>4.270963899153779</v>
       </c>
       <c r="J40" t="n">
-        <v>4.161175015058565</v>
+        <v>4.270963899153779</v>
       </c>
       <c r="K40" t="n">
-        <v>4.161175015058565</v>
+        <v>4.270963899153779</v>
       </c>
       <c r="L40" t="n">
-        <v>4.161175015058565</v>
+        <v>4.270963899153779</v>
       </c>
       <c r="M40" t="n">
-        <v>4.161175015058565</v>
+        <v>4.270963899153779</v>
       </c>
       <c r="N40" t="n">
-        <v>4.161175015058565</v>
+        <v>4.270963899153779</v>
       </c>
       <c r="O40" t="n">
-        <v>4.161175015058565</v>
+        <v>4.270963899153779</v>
       </c>
       <c r="P40" t="n">
-        <v>4.161175015058565</v>
+        <v>4.270963899153779</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.161175015058565</v>
+        <v>4.270963899153779</v>
       </c>
       <c r="R40" t="n">
-        <v>4.161175015058565</v>
+        <v>4.270963899153779</v>
       </c>
       <c r="S40" t="n">
-        <v>4.161175015058565</v>
+        <v>4.270963899153779</v>
       </c>
       <c r="T40" t="n">
-        <v>4.161175015058565</v>
+        <v>4.270963899153779</v>
       </c>
       <c r="U40" t="n">
-        <v>4.161175015058565</v>
+        <v>4.270963899153779</v>
       </c>
       <c r="V40" t="n">
-        <v>4.161175015058565</v>
+        <v>4.270963899153779</v>
       </c>
       <c r="W40" t="n">
-        <v>4.161175015058565</v>
+        <v>4.270963899153779</v>
       </c>
       <c r="X40" t="n">
-        <v>4.161175015058565</v>
+        <v>4.270963899153779</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.161175015058565</v>
+        <v>4.270963899153779</v>
       </c>
     </row>
     <row r="41">
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467055</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32804,7 +32804,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987486</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681593</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844662</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953984</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003804</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623185</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574984</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095013</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O32" t="n">
-        <v>738.151212309905</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746406</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781684</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563566</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806939</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451118</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345273</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502563</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798528</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752247</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026481</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353153</v>
+        <v>378.5123470353143</v>
       </c>
       <c r="L33" t="n">
-        <v>508.956561913879</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233467</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837917</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970243</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002922</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987483</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905539</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238311</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898487</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1542136840462213</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430535</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311877</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742012</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J34" t="n">
-        <v>138.9375967297388</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702021</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098816</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316428</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883111</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023085998</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802166</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895878</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712204</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553032</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112285</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780293</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>420.766193382324</v>
+        <v>591.1371219309108</v>
       </c>
       <c r="M36" t="n">
         <v>740.1323715504302</v>
@@ -33749,13 +33749,13 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>557.7961431982454</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33974,10 +33974,10 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>740.1323715504301</v>
@@ -33986,13 +33986,13 @@
         <v>759.7214730927637</v>
       </c>
       <c r="O39" t="n">
-        <v>189.4642825742353</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286952</v>
+        <v>273.0542121815567</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>139.4267020936828</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>405.6377363145776</v>
+        <v>392.682598689168</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>697.5239273101583</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>635.0591000995341</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>422.7052121445763</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7042053200632</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35814,16 +35814,16 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675368</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>834.4033276796257</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193716</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>399.2123157422602</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,10 +36358,10 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>610.0741482129894</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200632</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
         <v>988.434649323059</v>
@@ -36370,16 +36370,16 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127271</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>470.4443441954267</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>627.9163536265537</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>558.7186215464197</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>318.3309425707635</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687121</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865553998</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427817</v>
+        <v>750.4609016724953</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230582</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248946</v>
+        <v>989.6487598248959</v>
       </c>
       <c r="O32" t="n">
-        <v>575.5896386552672</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193711</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037189</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152069</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453598135</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609563</v>
+        <v>240.6709080609554</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340048</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013284</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004584</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525799</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859619</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127268</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306605</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443193</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701978</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934834</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675397</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226394</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451101</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789346</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>332.0634613856465</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K35" t="n">
         <v>474.3741250380626</v>
@@ -37324,7 +37324,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404112</v>
+        <v>418.5673812695001</v>
       </c>
       <c r="R35" t="n">
         <v>127.3573607845842</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>282.2118136024498</v>
+        <v>452.5827421510367</v>
       </c>
       <c r="M36" t="n">
         <v>597.9983376284119</v>
@@ -37397,13 +37397,13 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>423.8217357839152</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.88971099475634</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K37" t="n">
-        <v>262.3610282483016</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L37" t="n">
-        <v>391.7883930084739</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.5740232724386</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N37" t="n">
-        <v>418.9945018050119</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.8395434447318</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P37" t="n">
-        <v>293.5748745772317</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q37" t="n">
-        <v>119.0119439885757</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607201</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K38" t="n">
         <v>474.3741250380625</v>
@@ -37561,7 +37561,7 @@
         <v>553.8443926134828</v>
       </c>
       <c r="Q38" t="n">
-        <v>416.9991286653376</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R38" t="n">
         <v>127.3573607845841</v>
@@ -37622,10 +37622,10 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>597.9983376284117</v>
@@ -37634,13 +37634,13 @@
         <v>628.3797610094305</v>
       </c>
       <c r="O39" t="n">
-        <v>46.86803812979091</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426737</v>
+        <v>133.0724380955352</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>83.94109712571905</v>
+        <v>84.05088600981428</v>
       </c>
       <c r="K40" t="n">
-        <v>266.4124143792643</v>
+        <v>266.5222032633595</v>
       </c>
       <c r="L40" t="n">
-        <v>395.8397791394366</v>
+        <v>395.9495680235318</v>
       </c>
       <c r="M40" t="n">
-        <v>427.6254094034014</v>
+        <v>427.7351982874966</v>
       </c>
       <c r="N40" t="n">
-        <v>423.0458879359746</v>
+        <v>423.1556768200699</v>
       </c>
       <c r="O40" t="n">
-        <v>374.8909295756945</v>
+        <v>375.0007184597897</v>
       </c>
       <c r="P40" t="n">
-        <v>297.6262607081945</v>
+        <v>297.7360495922897</v>
       </c>
       <c r="Q40" t="n">
-        <v>123.0633301195384</v>
+        <v>123.1731190036336</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>605.157040442574</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>12.58907542701613</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>104.874844725331</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788763</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390486</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030133</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753065</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>796.0449487554608</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>274.2960242312443</v>
+        <v>261.3408866058347</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>104.874844725331</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788763</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390486</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030133</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753065</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
